--- a/Input data/in_48h.xlsx
+++ b/Input data/in_48h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E08D4C-1CC1-4B7D-A1B1-3702802D53A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58ECC0-DDAA-48B2-93F1-CBAD4586CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Availability</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>South</t>
+  </si>
+  <si>
+    <t>Soll</t>
   </si>
 </sst>
 </file>
@@ -1255,45 +1258,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$F$4:$F$27</c:f>
+              <c:f>timeseries!$F$4:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -1311,25 +1314,28 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18</c:v>
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,10 +1378,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$G$4:$G$27</c:f>
+              <c:f>timeseries!$G$4:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,22 +1389,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.09</c:v>
@@ -1431,10 +1437,10 @@
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.04</c:v>
@@ -1446,6 +1452,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1489,18 +1498,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$H$4:$H$27</c:f>
+              <c:f>timeseries!$H$4:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18</c:v>
@@ -1518,22 +1527,22 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.11</c:v>
@@ -1548,22 +1557,25 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.37</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,10 +1618,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$I$4:$I$27</c:f>
+              <c:f>timeseries!$I$4:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1623,19 +1635,19 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1659,13 +1671,13 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.38</c:v>
@@ -1674,12 +1686,15 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2041,6 +2056,9 @@
                 <c:pt idx="23">
                   <c:v>14758.5</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>15532.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2154,6 +2172,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34436.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36243.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,10 +4904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
-  <dimension ref="B1:Y95"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4896,7 +4917,7 @@
     <col min="6" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C1" s="66" t="s">
         <v>43</v>
       </c>
@@ -4909,7 +4930,7 @@
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C2" s="54" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C3" s="54" t="s">
         <v>25</v>
       </c>
@@ -4951,7 +4972,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45">
+        <v>0</v>
+      </c>
       <c r="B4" s="45">
         <v>1</v>
       </c>
@@ -4965,19 +4989,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="45">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="45">
         <v>0</v>
       </c>
       <c r="H4" s="45">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I4" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="45">
+        <v>2</v>
+      </c>
       <c r="B5" s="45">
         <v>2</v>
       </c>
@@ -4991,13 +5018,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="45">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="G5" s="45">
         <v>0</v>
       </c>
       <c r="H5" s="45">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="I5" s="45">
         <v>0</v>
@@ -5007,7 +5034,10 @@
       <c r="X5" s="58"/>
       <c r="Y5" s="57"/>
     </row>
-    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
       <c r="B6" s="45">
         <v>3</v>
       </c>
@@ -5021,13 +5051,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="45">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G6" s="45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H6" s="45">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I6" s="45">
         <v>0</v>
@@ -5037,7 +5067,10 @@
       <c r="X6" s="61"/>
       <c r="Y6" s="60"/>
     </row>
-    <row r="7" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
       <c r="B7" s="45">
         <v>4</v>
       </c>
@@ -5051,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="45">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="45">
         <v>0.12</v>
@@ -5067,7 +5100,10 @@
       <c r="X7" s="61"/>
       <c r="Y7" s="60"/>
     </row>
-    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="45">
+        <v>8</v>
+      </c>
       <c r="B8" s="45">
         <v>5</v>
       </c>
@@ -5081,23 +5117,26 @@
         <v>5</v>
       </c>
       <c r="F8" s="45">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G8" s="45">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H8" s="45">
         <v>0.15</v>
       </c>
       <c r="I8" s="45">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
       <c r="X8" s="61"/>
       <c r="Y8" s="60"/>
     </row>
-    <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="45">
+        <v>10</v>
+      </c>
       <c r="B9" s="45">
         <v>6</v>
       </c>
@@ -5111,23 +5150,26 @@
         <v>6</v>
       </c>
       <c r="F9" s="45">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="45">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="H9" s="45">
         <v>0.12</v>
       </c>
       <c r="I9" s="45">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
       <c r="X9" s="61"/>
       <c r="Y9" s="60"/>
     </row>
-    <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="45">
+        <v>12</v>
+      </c>
       <c r="B10" s="45">
         <v>7</v>
       </c>
@@ -5141,23 +5183,26 @@
         <v>7</v>
       </c>
       <c r="F10" s="45">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G10" s="45">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H10" s="45">
         <v>0.08</v>
       </c>
       <c r="I10" s="45">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
       <c r="X10" s="61"/>
       <c r="Y10" s="60"/>
     </row>
-    <row r="11" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="45">
+        <v>14</v>
+      </c>
       <c r="B11" s="45">
         <v>8</v>
       </c>
@@ -5171,10 +5216,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="45">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G11" s="45">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H11" s="45">
         <v>0.15</v>
@@ -5187,7 +5232,10 @@
       <c r="X11" s="61"/>
       <c r="Y11" s="60"/>
     </row>
-    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="45">
+        <v>16</v>
+      </c>
       <c r="B12" s="45">
         <v>9</v>
       </c>
@@ -5201,23 +5249,26 @@
         <v>9</v>
       </c>
       <c r="F12" s="45">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G12" s="45">
         <v>0.09</v>
       </c>
       <c r="H12" s="45">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I12" s="45">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
       <c r="X12" s="61"/>
       <c r="Y12" s="60"/>
     </row>
-    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="45">
+        <v>18</v>
+      </c>
       <c r="B13" s="45">
         <v>10</v>
       </c>
@@ -5231,13 +5282,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="45">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G13" s="45">
         <v>0</v>
       </c>
       <c r="H13" s="45">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I13" s="45">
         <v>0</v>
@@ -5247,7 +5298,10 @@
       <c r="X13" s="61"/>
       <c r="Y13" s="60"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="45">
+        <v>20</v>
+      </c>
       <c r="B14" s="45">
         <v>11</v>
       </c>
@@ -5267,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="45">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I14" s="45">
         <v>0</v>
@@ -5280,7 +5334,10 @@
       <c r="X14" s="61"/>
       <c r="Y14" s="60"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="45">
+        <v>22</v>
+      </c>
       <c r="B15" s="45">
         <v>12</v>
       </c>
@@ -5294,13 +5351,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="45">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="45">
         <v>0</v>
       </c>
       <c r="H15" s="45">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I15" s="45">
         <v>0</v>
@@ -5310,7 +5367,10 @@
       <c r="X15" s="61"/>
       <c r="Y15" s="60"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45">
+        <v>24</v>
+      </c>
       <c r="B16" s="45">
         <v>13</v>
       </c>
@@ -5340,7 +5400,10 @@
       <c r="X16" s="61"/>
       <c r="Y16" s="60"/>
     </row>
-    <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45">
+        <v>2</v>
+      </c>
       <c r="B17" s="45">
         <v>14</v>
       </c>
@@ -5360,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="45">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I17" s="45">
         <v>0</v>
@@ -5370,7 +5433,10 @@
       <c r="X17" s="61"/>
       <c r="Y17" s="60"/>
     </row>
-    <row r="18" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="45">
+        <v>4</v>
+      </c>
       <c r="B18" s="45">
         <v>15</v>
       </c>
@@ -5400,7 +5466,10 @@
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
-    <row r="19" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="45">
+        <v>6</v>
+      </c>
       <c r="B19" s="45">
         <v>16</v>
       </c>
@@ -5430,7 +5499,10 @@
       <c r="X19" s="61"/>
       <c r="Y19" s="60"/>
     </row>
-    <row r="20" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="45">
+        <v>8</v>
+      </c>
       <c r="B20" s="45">
         <v>17</v>
       </c>
@@ -5453,14 +5525,17 @@
         <v>0.17</v>
       </c>
       <c r="I20" s="45">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="60"/>
     </row>
-    <row r="21" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="45">
+        <v>10</v>
+      </c>
       <c r="B21" s="45">
         <v>18</v>
       </c>
@@ -5474,7 +5549,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="45">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="G21" s="45">
         <v>0.32</v>
@@ -5490,7 +5565,10 @@
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
-    <row r="22" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="45">
+        <v>12</v>
+      </c>
       <c r="B22" s="45">
         <v>19</v>
       </c>
@@ -5504,23 +5582,26 @@
         <v>19</v>
       </c>
       <c r="F22" s="45">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="45">
+        <v>0.31</v>
+      </c>
+      <c r="H22" s="45">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H22" s="45">
-        <v>0.31</v>
-      </c>
       <c r="I22" s="45">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
-    <row r="23" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="45">
+        <v>14</v>
+      </c>
       <c r="B23" s="45">
         <v>20</v>
       </c>
@@ -5534,13 +5615,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="45">
-        <v>0.45</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G23" s="45">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="H23" s="45">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I23" s="45">
         <v>0.38</v>
@@ -5550,7 +5631,10 @@
       <c r="X23" s="61"/>
       <c r="Y23" s="60"/>
     </row>
-    <row r="24" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="45">
+        <v>16</v>
+      </c>
       <c r="B24" s="45">
         <v>21</v>
       </c>
@@ -5564,13 +5648,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="45">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G24" s="45">
         <v>0.04</v>
       </c>
       <c r="H24" s="45">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I24" s="45">
         <v>0.15</v>
@@ -5580,7 +5664,10 @@
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
-    <row r="25" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="45">
+        <v>18</v>
+      </c>
       <c r="B25" s="45">
         <v>22</v>
       </c>
@@ -5594,23 +5681,26 @@
         <v>22</v>
       </c>
       <c r="F25" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="G25" s="45">
         <v>0</v>
       </c>
       <c r="H25" s="45">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I25" s="45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
-    <row r="26" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="45">
+        <v>20</v>
+      </c>
       <c r="B26" s="45">
         <v>23</v>
       </c>
@@ -5624,7 +5714,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="45">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="G26" s="45">
         <v>0</v>
@@ -5640,7 +5730,10 @@
       <c r="X26" s="61"/>
       <c r="Y26" s="60"/>
     </row>
-    <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="45">
+        <v>22</v>
+      </c>
       <c r="B27" s="45">
         <v>24</v>
       </c>
@@ -5654,7 +5747,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="45">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G27" s="45">
         <v>0</v>
@@ -5670,27 +5763,52 @@
       <c r="X27" s="61"/>
       <c r="Y27" s="60"/>
     </row>
-    <row r="28" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="45">
+        <v>24</v>
+      </c>
+      <c r="B28" s="45">
+        <v>25</v>
+      </c>
+      <c r="C28" s="47">
+        <v>15532.8</v>
+      </c>
+      <c r="D28" s="47">
+        <v>36243.199999999997</v>
+      </c>
+      <c r="E28" s="45">
+        <v>25</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="G28" s="45">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="I28" s="45">
+        <v>0</v>
+      </c>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
       <c r="X28" s="61"/>
       <c r="Y28" s="60"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
     </row>
@@ -5716,11 +5834,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2204.6000000000004</v>
+        <v>1871.136</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1697.2499999999998</v>
+        <v>1559.2800000000002</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5731,11 +5849,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>934.39999999999986</v>
+        <v>949.58399999999995</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1011.0499999999998</v>
+        <v>1058.2079999999999</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5794,19 +5912,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2204.6000000000004</v>
+        <v>1871.136</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>934.39999999999986</v>
+        <v>949.58399999999995</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1697.2499999999998</v>
+        <v>1559.2800000000002</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1011.0499999999998</v>
+        <v>1058.2079999999999</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5816,25 +5934,40 @@
         <v>39</v>
       </c>
       <c r="N44" s="52">
-        <f>AVERAGE(F4:F27)</f>
-        <v>0.25166666666666671</v>
+        <f>AVERAGE(F4:F28)</f>
+        <v>0.21359999999999998</v>
       </c>
       <c r="O44" s="52">
-        <f>AVERAGE(G4:G27)</f>
-        <v>0.10666666666666665</v>
+        <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G28)</f>
+        <v>0.1084</v>
       </c>
       <c r="P44" s="52">
-        <f>AVERAGE(H4:H27)</f>
-        <v>0.19374999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.17800000000000002</v>
       </c>
       <c r="Q44" s="52">
-        <f>AVERAGE(I4:I27)</f>
-        <v>0.11541666666666665</v>
+        <f t="shared" si="1"/>
+        <v>0.12079999999999998</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
+      <c r="L45" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="45">
+        <v>21</v>
+      </c>
+      <c r="O45" s="45">
+        <v>12</v>
+      </c>
+      <c r="P45" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="45">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C46" s="47"/>
